--- a/medicine/Enfance/Le_Perroquet_qui_bégayait/Le_Perroquet_qui_bégayait.xlsx
+++ b/medicine/Enfance/Le_Perroquet_qui_bégayait/Le_Perroquet_qui_bégayait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Perroquet_qui_b%C3%A9gayait</t>
+          <t>Le_Perroquet_qui_bégayait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Perroquet qui bégayait (titre original : The Mystery of the Stuttering Parrot) est un roman écrit par Robert Arthur, Jr. et paru en 1964 aux États-Unis. Il a été publié sous la signature théorique d'Alfred Hitchcock pour des motifs publicitaires et de marketing.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Perroquet_qui_b%C3%A9gayait</t>
+          <t>Le_Perroquet_qui_bégayait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les « trois jeunes détectives », Hannibal, Peter et Bob, sont chargés par Alfred Hitchcock de retrouver le perroquet d'un de ses amis qui a disparu. La police, contactée, estime que c'est une affaire insignifiante et ne veut rien savoir à ce sujet. Les jeunes gens apprennent que ce perroquet ne savait dire qu'une seule phrase : « Beaucoup de-de-de b-bruit pour rien ! » (ce qui explique le titre : le perroquet « bégayait »). 
 Les trois jeunes gens découvrent que ce perroquet faisait partie d'un groupe de sept oiseaux, chacun étant entraîné à apprendre et à pouvoir restituer quelques mots ou membres de phrases tout aussi énigmatiques.
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Perroquet_qui_b%C3%A9gayait</t>
+          <t>Le_Perroquet_qui_bégayait</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,7 +570,9 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La première édition de ce roman, paru en France chez Hachette, dans les collections Idéal Bibliothèque, Bibliothèque verte et Livre de poche, a été traduite en français par Vladimir Volkoff, dont on peut parfois reconnaître la trace dans la tournure des phrases en français.
 Ce roman introduit deux personnages que l'on retrouvera dans Les Trois Jeunes Détectives : Huganay, un bandit français très distingué, qui resurgit également dans Douze pendules pour Théodule, ainsi que Skinny Norris, un adolescent du même âge que les trois héros, et qui n'a de cesse de leur mettre des bâtons dans les roues. Il réapparaît dans plusieurs titres de la collection.
